--- a/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,13</t>
+          <t>12,43; 18,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,82</t>
+          <t>24,91; 30,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 25,02</t>
+          <t>20,69; 24,94</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,8</t>
+          <t>4,52; 6,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 9,94</t>
+          <t>7,17; 9,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 7,95</t>
+          <t>6,36; 7,99</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,72</t>
+          <t>4,11; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,66</t>
+          <t>6,08; 9,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,07</t>
+          <t>5,61; 8,05</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,0</t>
+          <t>6,22; 8,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,8</t>
+          <t>11,17; 13,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 10,77</t>
+          <t>9,25; 10,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,2</t>
+          <t>12,43; 18,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,91; 30,46</t>
+          <t>25,24; 30,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,69; 24,94</t>
+          <t>20,76; 25,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,52; 6,6</t>
+          <t>4,63; 6,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 9,87</t>
+          <t>7,24; 9,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 7,99</t>
+          <t>6,34; 7,95</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,54</t>
+          <t>4,01; 7,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,53</t>
+          <t>6,19; 9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 8,05</t>
+          <t>5,6; 8,07</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 8,08</t>
+          <t>6,19; 8,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,17; 13,76</t>
+          <t>11,37; 13,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 10,77</t>
+          <t>9,3; 10,77</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,14%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>26,7%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>21,72%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 18,13</t>
+          <t>11,84; 17,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,24; 30,82</t>
+          <t>24,36; 29,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,76; 25,02</t>
+          <t>19,81; 23,84</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,52%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>6,29%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 6,8</t>
+          <t>3,38; 6,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,24; 9,94</t>
+          <t>5,61; 9,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 7,95</t>
+          <t>5,1; 7,25</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,54%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,01; 7,72</t>
+          <t>3,93; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 9,66</t>
+          <t>6,07; 9,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,6; 8,07</t>
+          <t>5,48; 7,86</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,65%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,09%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,19; 8,0</t>
+          <t>4,79; 7,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,37; 13,8</t>
+          <t>9,61; 12,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 10,77</t>
+          <t>7,87; 9,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P33b_R5-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,84; 17,38</t>
+          <t>11,81; 17,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,36; 29,7</t>
+          <t>24,33; 29,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,81; 23,84</t>
+          <t>19,72; 23,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,38; 6,0</t>
+          <t>3,39; 5,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,61; 9,25</t>
+          <t>5,69; 9,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 7,25</t>
+          <t>5,05; 7,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,54</t>
+          <t>4,02; 7,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,41</t>
+          <t>5,89; 9,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 7,86</t>
+          <t>5,51; 7,85</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,32</t>
+          <t>4,89; 7,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,61; 12,97</t>
+          <t>9,61; 12,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,93</t>
+          <t>7,92; 9,93</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que toma algún remedio para dormir (no medicamentos)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>74100</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>200940</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>275040</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>60685; 88525</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>183137; 220401</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>249774; 299603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>108930</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>175800</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>284730</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77500; 135162</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>127278; 208472</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>228449; 332125</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>35886</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>49618</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>85504</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>26000; 48827</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>38899; 61441</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>72054; 102570</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1043</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>218916</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>426358</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>645274</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>168703; 250632</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>350876; 471178</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>562016; 705211</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>